--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43169,6 +43169,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43204,6 +43204,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43239,6 +43239,43 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>70500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,43 @@
         <v>70500</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,41 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>32300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,43 @@
         <v>32300</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43420,6 +43420,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43457,6 +43457,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>94000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,43 @@
         <v>94000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>28300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,43 @@
         <v>28300</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43601,6 +43601,76 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>10900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,41 @@
         <v>10900</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43706,6 +43706,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77866,6 +77866,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77901,6 +77901,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77936,6 +77936,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77973,6 +77973,43 @@
         </is>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78010,6 +78010,43 @@
         </is>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78047,6 +78047,43 @@
         </is>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78084,6 +78084,43 @@
         </is>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78121,6 +78121,43 @@
         </is>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78158,6 +78158,43 @@
         </is>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78195,6 +78195,43 @@
         </is>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78232,6 +78232,43 @@
         </is>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78269,6 +78269,43 @@
         </is>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78306,6 +78306,43 @@
         </is>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78343,6 +78343,43 @@
         </is>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9539.xlsx
+++ b/data/9539.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78380,6 +78380,41 @@
         </is>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>MUH</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
